--- a/E2M Converter/BOM.xlsx
+++ b/E2M Converter/BOM.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chanson\Desktop\Go-Kart-main\E2M Converter\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hanso\Desktop\Go-Kart\E2M Converter\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAC449C3-B4C7-4226-B95B-8A3ED20EA793}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19CDE466-ACCC-49A7-8473-BDE5049A3DEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -801,7 +801,7 @@
   <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -813,7 +813,7 @@
     <col min="5" max="5" width="6.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="85.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="107.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
